--- a/src/analysis_examples/circadb/results_lomb/cosinor_10394593_fam49a_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10394593_fam49a_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.23490607094889937, 0.37838276873283305]</t>
+          <t>[0.2346331652887353, 0.37865567439299713]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.460059206870312e-08</v>
+        <v>1.556029505245249e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>1.460059206870312e-08</v>
+        <v>1.556029505245249e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-1.056631763369539</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.39271810129993034, 0.46873002460596913]</t>
+          <t>[0.3927352812800226, 0.46871284462587687]</t>
         </is>
       </c>
       <c r="U2" t="n">
